--- a/SourceCode/2024/May 2024/Bhavya/Task12/Excel.xlsx
+++ b/SourceCode/2024/May 2024/Bhavya/Task12/Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhavy\OneDrive\Desktop\RPA-Developer-in-30-Days\SourceCode\2024\May 2024\Bhavya\Task12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF007C1-BD72-4916-B531-56C01EB870F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39933244-8E00-4677-A816-649809E586F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
